--- a/enlaces.xlsx
+++ b/enlaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\OneDrive\Documentos\GitHub\OpenMeet-s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Apps\automatizacion enlaces\OpenMeet-s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D71F3B-A429-4F2B-ABB5-5EEEF26D0E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D994E3BD-FBCE-4CA9-87D3-2B881F6BD0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15405" yWindow="4845" windowWidth="13395" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>SP_01</t>
   </si>
@@ -49,13 +49,493 @@
   </si>
   <si>
     <t>B-103</t>
+  </si>
+  <si>
+    <t>SP_02</t>
+  </si>
+  <si>
+    <t>SP_03</t>
+  </si>
+  <si>
+    <t>SP_04</t>
+  </si>
+  <si>
+    <t>SP_05</t>
+  </si>
+  <si>
+    <t>SP_06</t>
+  </si>
+  <si>
+    <t>SP_07</t>
+  </si>
+  <si>
+    <t>SP_08</t>
+  </si>
+  <si>
+    <t>SP_09</t>
+  </si>
+  <si>
+    <t>SP_10</t>
+  </si>
+  <si>
+    <t>SP_11</t>
+  </si>
+  <si>
+    <t>SP_12</t>
+  </si>
+  <si>
+    <t>SP_13</t>
+  </si>
+  <si>
+    <t>SP_14</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/pqo-rngk-jhh</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/wcp-rwfr-yty</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/xsf-vafz-brn</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/hgh-npoa-sxr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/reo-bazi-jry</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/uaf-nvnj-znn</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/snz-dmsb-gkr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/rvq-mfrx-zqr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/uzu-fuft-ghf</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/xdo-wuiy-iqf</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/wcp-fwxv-pdw</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/sbc-ugqg-ujj</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ekt-uofi-kte</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/rmf-johv-ipw</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/hrm-fqcs-knk</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/jke-egfr-zyd</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/fpy-yeiz-ppq</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/sua-xbns-net</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/vne-ogna-pxc</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/aeb-xbcz-xdk</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/djw-tvmn-fqr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/pem-gtkb-wuq</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ket-udhd-bay</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/pno-skvn-kfx</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/nwj-iksu-fcz</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/nfn-kyyd-ffv</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/fsp-fvwk-szy</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/fai-omxf-xyo</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/aor-pgbv-vqr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/dbb-rmjo-yqd</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/vah-hgzy-qnr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/hyw-jqzr-vrw</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/jqd-rshg-foo</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/nes-yezb-iod</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/iqa-qxuy-agd</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/aqz-tcdw-now</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/eaq-vspr-dzm</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/xez-gyeb-gpk</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/srn-qipw-aqs</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ovk-rszi-mfu</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/yhm-putu-rbo</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/vvx-mexr-nct</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/yzv-hcen-yse</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/nnn-hqce-ofi</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/srz-wcsj-bmy</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ute-qrvj-bho</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/rsn-wrjj-twj</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/bjc-husb-usi</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ffa-mcxx-juu</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/yud-mjur-wvj</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/xxp-ayup-uwm</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/asm-qtxd-nem</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/efa-dadg-grt</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/spf-bveg-ary</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/sna-wwxj-tvc</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/jou-ockk-jba</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/wvi-yqpw-xof</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/qoe-pqjr-nkz</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/byn-mhda-uzh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://meet.google.com/dhb-vysw-zfx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://meet.google.com/vxp-wcfj-ikc </t>
+  </si>
+  <si>
+    <t>https://meet.google.com/qkz-ijze-wht</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/fdd-csdb-zrh</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/omk-juta-yqq</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/zwe-unvr-gms</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/rop-oxcw-rse</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/sdd-exbe-cmj</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/dso-hdjs-uym</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ifw-eqaz-bib</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/unb-ofwx-odv</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/uxd-ttsc-rgg</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/fyf-uwgq-hac</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/xks-furv-yhv</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/zky-tmag-bja</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/sph-gych-xpm</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/mkh-agrt-mnr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/cig-mxft-ukd</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/kdy-rkmo-kgz</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/sxh-oxdd-azt</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/yzw-cfwz-xua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://meet.google.com/vji-pnhx-zai </t>
+  </si>
+  <si>
+    <t>https://meet.google.com/bdx-zotb-ioo</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/onj-ijsk-iac</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/cpb-tppr-rqr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/rzq-dtqp-vkt</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/wro-dtnq-vwp</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/apy-rfou-zmc</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/vyt-gxxt-rbn</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/bfy-kajn-wvm</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/wvc-udze-rod</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/tes-ogii-vwx</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/kxe-jwbv-qdb</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/xed-xpuz-nhr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/fbs-wxmt-nsz</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/bnu-jeth-xhy</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/hps-oxju-uag</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/fxf-vgow-ern</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/cpk-qxpu-win</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ybv-imwu-ckd</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/pek-eioo-uvv</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/otg-eboi-cqm</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/eqk-xmmr-wyh</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/oqj-cduu-cda</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/uvm-snhk-hen</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/keb-tood-yyo</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/nkq-gdqf-yyx</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/bsn-tfrx-hmt</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/xtr-czfv-sjy</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/aep-ytmp-yiv</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/kxn-gicc-yfs</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/wdu-tesg-qmx</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/gkr-bzyb-ynz</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/yeg-kagv-eqy</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/hsd-kqbd-ems</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/hiz-pxod-vpa</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/hhu-uqwf-qay</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/nsz-ychf-zdr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/evf-gydo-xbh</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/rzx-wpze-yfe</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ehh-buqf-nuj</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/vtw-jmfm-yac</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ssw-mizk-xav</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/qzb-xhdz-fqk</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/bid-wgrf-dei</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/kye-asdr-azc</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/xdk-bzdg-aqi</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/wfo-riup-szk</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/bjm-xbon-cfi</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/iti-jqho-mjm</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/nrv-qrrx-mux</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/nzi-xafx-bun</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/znw-jioh-svy</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/nmm-wxup-tjk</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/rjr-maev-mix</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/dni-ikpz-iid</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ihn-kzch-nrq</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/foc-drqe-uag</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ybx-mfpq-uud</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/qme-dgbv-jta</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/jtp-dtss-tem</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/sqk-orif-xva</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/gbt-gjvu-euf</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/gzh-fpfv-hpq</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/mtf-axrd-cxg</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/eof-dbov-qay</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/zso-rtkp-ffr</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/bzy-vovr-gfk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,11 +557,24 @@
       <name val="Lexend"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -98,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -136,26 +629,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,53 +995,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C4"/>
+  <dimension ref="B1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" ht="72.599999999999994" thickBot="1">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:16" ht="91.5" thickTop="1" thickBot="1">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" ht="72.599999999999994" thickBot="1">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:16" ht="90.75" thickBot="1">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" ht="72.599999999999994" thickBot="1">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:16" ht="90.75" thickBot="1">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
+    <row r="5" spans="2:16" ht="90.75" thickBot="1">
+      <c r="C5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="90.75" thickBot="1">
+      <c r="C6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="90.75" thickBot="1">
+      <c r="C7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="90.75" thickBot="1">
+      <c r="C8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="90.75" thickBot="1">
+      <c r="C9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="90.75" thickBot="1">
+      <c r="C10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="90.75" thickBot="1">
+      <c r="C11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="90.75" thickBot="1">
+      <c r="C12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="75.75" thickBot="1">
+      <c r="C13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="75.75" thickBot="1">
+      <c r="C14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FB8390A1-630F-4418-9A9A-01FC5990E499}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{875251E0-2A30-4718-A288-31B4CB272D79}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{0CA59409-E68A-4156-8428-E40B29975011}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{49B21132-C5F1-4B4C-AD85-F2CB12755C35}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{BE8F2B91-9E28-4975-89E3-EDD91B0E08F7}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{0F18A219-A578-4C6D-A1B5-2431EACAA88C}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{86F34668-BD6A-4A65-987C-9D42A130062F}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{77A80964-ACE4-4D45-A4EF-F0D8D37E7428}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{E1FC8E5B-1BD3-494F-A504-B5E123E0C9A4}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{BF838011-B82B-4307-8240-DEC7B0657715}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{A7CA811C-F679-4DC7-86CB-BF7C7AAFAE40}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{896C94C8-AE07-49D1-9678-CEBEEAEF097E}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{D53E6CFC-FA4D-47C0-9BDC-32A42C31AA89}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{5C566D37-8885-4BF4-A388-DDCD8078C40F}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{03EFED56-7549-4373-8759-58E59C8BBEA9}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{1E51ECF2-5DAC-4DFB-A1FF-59CD8EFEDA3C}"/>
+    <hyperlink ref="E2" r:id="rId14" xr:uid="{4DCC19F4-F843-4AA8-8198-A7A9B69C397D}"/>
+    <hyperlink ref="E3" r:id="rId15" xr:uid="{7B780893-213A-43C2-AD22-F8B1FCB8D047}"/>
+    <hyperlink ref="E4" r:id="rId16" xr:uid="{3EBF4ECD-D220-480D-ABE0-C8A8884471C9}"/>
+    <hyperlink ref="E5" r:id="rId17" xr:uid="{B9ABC0B5-8AD5-42CC-BD16-FBFFFC4D8517}"/>
+    <hyperlink ref="E6" r:id="rId18" xr:uid="{68E3AFE1-4C59-4B2F-8B4D-5001B7572438}"/>
+    <hyperlink ref="E7" r:id="rId19" xr:uid="{C7CC816A-B929-4340-919F-96B09653F3C9}"/>
+    <hyperlink ref="E8" r:id="rId20" xr:uid="{6E174FF3-A080-4E35-BD62-0DC75D853D3B}"/>
+    <hyperlink ref="E9" r:id="rId21" xr:uid="{7AD6B676-6702-42A7-B88F-27BF01A2E318}"/>
+    <hyperlink ref="E10" r:id="rId22" xr:uid="{2BCFB4FA-867B-4E95-BAB6-78212B568B64}"/>
+    <hyperlink ref="E11" r:id="rId23" xr:uid="{787DDD0E-A163-4185-93A5-A352D2A9AF3E}"/>
+    <hyperlink ref="E12" r:id="rId24" display="https://meet.google.com/pno-skvn-kfx?authuser=0" xr:uid="{9D061FFB-1250-4A16-85BF-087A64193EAF}"/>
+    <hyperlink ref="E13" r:id="rId25" xr:uid="{40B111C2-CB18-4CC2-985A-627B82005B53}"/>
+    <hyperlink ref="E14" r:id="rId26" xr:uid="{9BCAD797-60C4-4F82-9608-2B60597F19F5}"/>
+    <hyperlink ref="G2" r:id="rId27" xr:uid="{522F8669-290B-4EA2-8FF0-ACD48430F90F}"/>
+    <hyperlink ref="G3" r:id="rId28" xr:uid="{F528AB46-31B5-42E4-9D1D-FC235DF64582}"/>
+    <hyperlink ref="G4" r:id="rId29" xr:uid="{F7C2C772-46C8-48E2-91E3-1DF474721D64}"/>
+    <hyperlink ref="G5" r:id="rId30" display="https://meet.google.com/vvx-mexr-nct?authuser=0" xr:uid="{9A26270F-3374-466D-9761-FE8C7DFFF0A2}"/>
+    <hyperlink ref="G6" r:id="rId31" xr:uid="{A75517BD-26E9-48C5-8CA8-39EE41215B77}"/>
+    <hyperlink ref="G7" r:id="rId32" xr:uid="{7880E466-0431-49C0-B811-CF7E27F49117}"/>
+    <hyperlink ref="G8" r:id="rId33" xr:uid="{B273A877-39C3-44A6-B869-D269AAE52755}"/>
+    <hyperlink ref="G9" r:id="rId34" xr:uid="{1D00F5F9-44F2-4CC0-B9F3-5C79255FDA10}"/>
+    <hyperlink ref="G10" r:id="rId35" xr:uid="{FBE61FB0-E933-4C65-918B-B3015B8944DB}"/>
+    <hyperlink ref="G11" r:id="rId36" xr:uid="{4ACB882B-45EF-433D-9AF2-F3A6567727D0}"/>
+    <hyperlink ref="H2" r:id="rId37" xr:uid="{2B9B9B93-9C4B-4D00-8BC9-197BCD0F86DA}"/>
+    <hyperlink ref="H3" r:id="rId38" xr:uid="{2BC2C6F8-45E6-436E-8B6B-1A28DEC406B4}"/>
+    <hyperlink ref="H4" r:id="rId39" xr:uid="{0E8AF0AB-6149-42E6-B4D9-DA3AF21BBCFC}"/>
+    <hyperlink ref="H5" r:id="rId40" xr:uid="{55CB4320-02D5-4D73-AAE0-861F63216155}"/>
+    <hyperlink ref="H6" r:id="rId41" xr:uid="{AE387C95-663D-483B-903C-3CDC194CA2A3}"/>
+    <hyperlink ref="H7" r:id="rId42" xr:uid="{05403FB4-AF58-4134-8DC8-FCE960068623}"/>
+    <hyperlink ref="H8" r:id="rId43" xr:uid="{31DA6E64-8984-49CF-BC48-60F1D51A5C0F}"/>
+    <hyperlink ref="H9" r:id="rId44" xr:uid="{424F9AC3-1A7C-4117-BDB5-3E270A2CE8A2}"/>
+    <hyperlink ref="H10" r:id="rId45" xr:uid="{E005C6D7-F867-43E1-8AE1-332C52D5702A}"/>
+    <hyperlink ref="H11" r:id="rId46" xr:uid="{91461AE5-01A5-4344-9A8F-4EF947BBAFC9}"/>
+    <hyperlink ref="H12" r:id="rId47" xr:uid="{DCB0BA34-3109-4C6A-AA1D-659D47AA2B5E}"/>
+    <hyperlink ref="I6" r:id="rId48" xr:uid="{0BA0097C-8E53-4595-8749-442A14985A8C}"/>
+    <hyperlink ref="J2" r:id="rId49" xr:uid="{BA62826C-1024-4D02-BD56-E310E2E90C28}"/>
+    <hyperlink ref="J3" r:id="rId50" xr:uid="{4556E20C-A106-47CA-9EC1-84D871FCE082}"/>
+    <hyperlink ref="J4" r:id="rId51" xr:uid="{564E3078-DD3E-4B0D-8329-6164252557D2}"/>
+    <hyperlink ref="J5" r:id="rId52" xr:uid="{381B1EB8-FA61-4EC7-9BDD-3B7D697B3872}"/>
+    <hyperlink ref="J6" r:id="rId53" xr:uid="{E50EFDBB-69A6-4429-BDD3-EF7D21089C1A}"/>
+    <hyperlink ref="J7" r:id="rId54" xr:uid="{A6B456C5-BE3B-4B06-9186-5CE017271A58}"/>
+    <hyperlink ref="J8" r:id="rId55" xr:uid="{F76E99CC-12E5-4811-A40B-F4119B136605}"/>
+    <hyperlink ref="J9" r:id="rId56" xr:uid="{45661333-722A-4883-841E-50E2D8DFB343}"/>
+    <hyperlink ref="J10" r:id="rId57" xr:uid="{862832C9-A4EA-48F7-A754-59E7B33CB8B8}"/>
+    <hyperlink ref="J11" r:id="rId58" xr:uid="{759F57F2-1102-4FCD-9F0D-28E8B963DD2D}"/>
+    <hyperlink ref="K2" r:id="rId59" xr:uid="{1D017DD2-72D6-466E-830C-783F4DE91E79}"/>
+    <hyperlink ref="K3" r:id="rId60" display="https://meet.google.com/vji-pnhx-zai" xr:uid="{656E7705-EF95-4C40-ABA7-CBEFA1350129}"/>
+    <hyperlink ref="K4" r:id="rId61" xr:uid="{A57A867E-33BD-44AC-9E3B-CECE4778AE44}"/>
+    <hyperlink ref="K5" r:id="rId62" xr:uid="{DA1BE6F7-4D62-4F50-9331-C85E6745139D}"/>
+    <hyperlink ref="K6" r:id="rId63" xr:uid="{304DC049-D4BD-400E-8634-AEEAA565203A}"/>
+    <hyperlink ref="K7" r:id="rId64" xr:uid="{BB773F68-5F3D-4A7A-B3F0-020DA7F86820}"/>
+    <hyperlink ref="K8" r:id="rId65" xr:uid="{D417D5D5-03AA-455A-97C1-361E4777AB82}"/>
+    <hyperlink ref="K9" r:id="rId66" xr:uid="{125B704D-0905-45C7-AE3F-DA58A221526F}"/>
+    <hyperlink ref="K10" r:id="rId67" xr:uid="{FE15372B-54B0-4669-979A-4FBDA3CAF214}"/>
+    <hyperlink ref="K11" r:id="rId68" xr:uid="{8E487750-8E0C-405C-B3B6-59AA519CB76A}"/>
+    <hyperlink ref="L2" r:id="rId69" xr:uid="{95E9C5E4-3AD0-4FC6-9556-ECD20B53D3C2}"/>
+    <hyperlink ref="L3" r:id="rId70" xr:uid="{52E5B4FF-8A35-4B5F-9016-96F0CF0B13DF}"/>
+    <hyperlink ref="L4" r:id="rId71" xr:uid="{58994C20-34CC-4EF1-9B62-63A77ADA470E}"/>
+    <hyperlink ref="L5" r:id="rId72" xr:uid="{2F3976FE-C528-4A1F-BFE7-6E10DB9CAD08}"/>
+    <hyperlink ref="L6" r:id="rId73" xr:uid="{E389DA69-8AEC-44E2-8B06-7472DD5EC788}"/>
+    <hyperlink ref="L7" r:id="rId74" xr:uid="{9EAF11D8-0FDF-4DB6-A301-272D84D90F21}"/>
+    <hyperlink ref="L8" r:id="rId75" xr:uid="{C59C22CF-4358-47ED-BDA0-C6680C00FCAD}"/>
+    <hyperlink ref="L9" r:id="rId76" xr:uid="{CD8CD25E-8A58-4116-90FD-E2BB8146527B}"/>
+    <hyperlink ref="L10" r:id="rId77" xr:uid="{9ADFB76F-B1B0-4211-84AC-F8E663979E79}"/>
+    <hyperlink ref="L11" r:id="rId78" xr:uid="{D10DC1BE-8548-4A83-B860-5BAADB373B1F}"/>
+    <hyperlink ref="M11" r:id="rId79" xr:uid="{5C9A7DAC-8D12-4954-9776-21ED08B51D4E}"/>
+    <hyperlink ref="M10" r:id="rId80" xr:uid="{7AC30B9E-5514-4C08-A5BA-42CF61462142}"/>
+    <hyperlink ref="M9" r:id="rId81" xr:uid="{FAE1BE10-AF88-4128-B221-1BA16281EB2A}"/>
+    <hyperlink ref="M8" r:id="rId82" xr:uid="{2D332409-3C23-451E-A929-F8D7F5A14751}"/>
+    <hyperlink ref="M7" r:id="rId83" xr:uid="{1F21835C-D352-47AE-86A6-AFABCAC3AB66}"/>
+    <hyperlink ref="M6" r:id="rId84" xr:uid="{D1B422D2-6C88-4589-B43E-20B6E86F0B8C}"/>
+    <hyperlink ref="M5" r:id="rId85" xr:uid="{83F3F7BE-BBA4-49E4-8C94-9D829DE2FDD8}"/>
+    <hyperlink ref="M4" r:id="rId86" xr:uid="{58D9D789-EB32-4C7D-8C84-C61959ADAC76}"/>
+    <hyperlink ref="M3" r:id="rId87" xr:uid="{97F68AD1-ABB8-442B-97C9-6F37A3F8B71A}"/>
+    <hyperlink ref="M2" r:id="rId88" xr:uid="{0C2AC0E1-7A23-4B35-8FED-7534B4DB8E83}"/>
+    <hyperlink ref="N2" r:id="rId89" xr:uid="{3E33E3C1-C910-4002-84E8-6509AE394888}"/>
+    <hyperlink ref="N3" r:id="rId90" xr:uid="{FDD0610F-6B18-4D92-8725-26F0ABBD1290}"/>
+    <hyperlink ref="N4" r:id="rId91" xr:uid="{740E9159-EB1B-40E9-AE57-5B657052237C}"/>
+    <hyperlink ref="N5" r:id="rId92" xr:uid="{00B78C09-396B-4FA1-9E2D-630FDAFA1482}"/>
+    <hyperlink ref="N6" r:id="rId93" xr:uid="{B634D49B-DE64-469E-9A30-2C2412781A1A}"/>
+    <hyperlink ref="N7" r:id="rId94" xr:uid="{E6A2FAE6-6FC9-45A5-A9E0-DF1BDB97B7E1}"/>
+    <hyperlink ref="N8" r:id="rId95" xr:uid="{091778B4-1799-497A-9FA3-0386F9E01CE6}"/>
+    <hyperlink ref="N9" r:id="rId96" xr:uid="{00891683-4BE5-41E8-929F-9A4533D45015}"/>
+    <hyperlink ref="N10" r:id="rId97" xr:uid="{F5DDDACC-0996-4B19-B3CE-0CA5616751D6}"/>
+    <hyperlink ref="N11" r:id="rId98" xr:uid="{118CF2AE-5D81-48DB-8C1D-20457600264C}"/>
+    <hyperlink ref="O2" r:id="rId99" xr:uid="{711D1982-BF26-4F3E-BCAC-E9DD730E9993}"/>
+    <hyperlink ref="O3" r:id="rId100" xr:uid="{B4526196-D6B5-4A65-B713-F18C12ED7E68}"/>
+    <hyperlink ref="O4" r:id="rId101" xr:uid="{92967EA2-20CC-42D3-8157-73D98E0A42C9}"/>
+    <hyperlink ref="O5" r:id="rId102" xr:uid="{2EB4DBEF-CCDC-44F4-80FE-0A16310139F2}"/>
+    <hyperlink ref="O6" r:id="rId103" xr:uid="{BE5C80E3-D599-40F8-A644-1D68A4F8A880}"/>
+    <hyperlink ref="O7" r:id="rId104" xr:uid="{2BB4E308-0729-405C-8710-51AA2EA278AD}"/>
+    <hyperlink ref="O8" r:id="rId105" xr:uid="{CE97054E-2C3E-422D-ACD9-7D4BEAB6B028}"/>
+    <hyperlink ref="O9" r:id="rId106" xr:uid="{8A96112A-574D-4783-B94A-AD81BF9D126E}"/>
+    <hyperlink ref="O10" r:id="rId107" xr:uid="{9FE11243-E2AF-402E-B8DB-6C512DE241A6}"/>
+    <hyperlink ref="P2" r:id="rId108" xr:uid="{A376472A-88EE-4805-9EFA-C24BE00C3E51}"/>
+    <hyperlink ref="P3" r:id="rId109" xr:uid="{1489F66D-420B-4D60-A121-5E45CC0A7232}"/>
+    <hyperlink ref="P4" r:id="rId110" xr:uid="{B522EE23-E19A-4839-80CD-9EC478AB0F9E}"/>
+    <hyperlink ref="P5" r:id="rId111" xr:uid="{4B517C87-312D-48D8-8AA2-5F1A3A179E7B}"/>
+    <hyperlink ref="P6" r:id="rId112" xr:uid="{A9DE247A-F19F-4AC0-9523-F10D479C8783}"/>
+    <hyperlink ref="P7" r:id="rId113" xr:uid="{10C3CBF4-0684-43BD-BD49-F388DC9FCC15}"/>
+    <hyperlink ref="P8" r:id="rId114" xr:uid="{B5194833-D854-4759-A10A-758AADE3793F}"/>
+    <hyperlink ref="P9" r:id="rId115" xr:uid="{E73886EB-0FE1-4E46-B1A0-37C75825C499}"/>
+    <hyperlink ref="P10" r:id="rId116" xr:uid="{F444F8E6-4ECD-4D97-9E3B-1B596A604533}"/>
+    <hyperlink ref="C2" r:id="rId117" xr:uid="{4F467EB5-5DB4-45E4-BE53-D4167806B8B0}"/>
+    <hyperlink ref="C3" r:id="rId118" xr:uid="{A44FE1B8-1C7B-43EA-8650-22E72F697463}"/>
+    <hyperlink ref="C4" r:id="rId119" xr:uid="{808F2A50-C75C-4A46-92EF-BCF7986BEC66}"/>
+    <hyperlink ref="C5" r:id="rId120" xr:uid="{B46FCC85-A0CB-422F-ABD4-1A81356E751E}"/>
+    <hyperlink ref="C6" r:id="rId121" xr:uid="{8E86019D-E90A-41AB-A65E-25C3DD046C90}"/>
+    <hyperlink ref="C7" r:id="rId122" xr:uid="{854900F5-92F1-483D-AEB1-82836C6F5B19}"/>
+    <hyperlink ref="C8" r:id="rId123" xr:uid="{0D1C8066-55A7-481C-92DE-12670AA72303}"/>
+    <hyperlink ref="C9" r:id="rId124" xr:uid="{CCA31005-9F67-418E-A2FC-ACAC65AFEA8F}"/>
+    <hyperlink ref="C10" r:id="rId125" xr:uid="{BA73033B-BD23-4168-AEAD-E8B565312C6D}"/>
+    <hyperlink ref="C11" r:id="rId126" xr:uid="{3DDE3509-4368-4B2B-B0FC-5626259B07EB}"/>
+    <hyperlink ref="C12" r:id="rId127" xr:uid="{54E9CB5B-E4B7-4585-81A5-A7C2B29CD041}"/>
+    <hyperlink ref="C13" r:id="rId128" xr:uid="{982DF4B8-02C7-48D1-B69D-6A4E87CC33F2}"/>
+    <hyperlink ref="C14" r:id="rId129" xr:uid="{7FDC41EE-E2D1-467E-9B6D-F4D201A72BBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId130"/>
 </worksheet>
 </file>
--- a/enlaces.xlsx
+++ b/enlaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Apps\automatizacion enlaces\OpenMeet-s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\OpenMeet-s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D994E3BD-FBCE-4CA9-87D3-2B881F6BD0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE3092-0BAE-411D-8904-3565AB909CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15405" yWindow="4845" windowWidth="13395" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -679,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -712,6 +712,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,7 +1004,7 @@
   <dimension ref="B1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1057,10 +1063,10 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1104,10 +1110,10 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1151,10 +1157,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1195,10 +1201,10 @@
       <c r="C5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1239,10 +1245,10 @@
       <c r="C6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1283,10 +1289,10 @@
       <c r="C7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1327,10 +1333,10 @@
       <c r="C8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1371,10 +1377,10 @@
       <c r="C9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1415,10 +1421,10 @@
       <c r="C10" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1459,10 +1465,10 @@
       <c r="C11" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -1497,10 +1503,10 @@
       <c r="C12" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -1514,10 +1520,10 @@
       <c r="C13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1528,10 +1534,10 @@
       <c r="C14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1539,135 +1545,135 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{49B21132-C5F1-4B4C-AD85-F2CB12755C35}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{BE8F2B91-9E28-4975-89E3-EDD91B0E08F7}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{0F18A219-A578-4C6D-A1B5-2431EACAA88C}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{86F34668-BD6A-4A65-987C-9D42A130062F}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{77A80964-ACE4-4D45-A4EF-F0D8D37E7428}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{E1FC8E5B-1BD3-494F-A504-B5E123E0C9A4}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{BF838011-B82B-4307-8240-DEC7B0657715}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{A7CA811C-F679-4DC7-86CB-BF7C7AAFAE40}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{896C94C8-AE07-49D1-9678-CEBEEAEF097E}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{D53E6CFC-FA4D-47C0-9BDC-32A42C31AA89}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{5C566D37-8885-4BF4-A388-DDCD8078C40F}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{03EFED56-7549-4373-8759-58E59C8BBEA9}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{1E51ECF2-5DAC-4DFB-A1FF-59CD8EFEDA3C}"/>
-    <hyperlink ref="E2" r:id="rId14" xr:uid="{4DCC19F4-F843-4AA8-8198-A7A9B69C397D}"/>
-    <hyperlink ref="E3" r:id="rId15" xr:uid="{7B780893-213A-43C2-AD22-F8B1FCB8D047}"/>
-    <hyperlink ref="E4" r:id="rId16" xr:uid="{3EBF4ECD-D220-480D-ABE0-C8A8884471C9}"/>
-    <hyperlink ref="E5" r:id="rId17" xr:uid="{B9ABC0B5-8AD5-42CC-BD16-FBFFFC4D8517}"/>
-    <hyperlink ref="E6" r:id="rId18" xr:uid="{68E3AFE1-4C59-4B2F-8B4D-5001B7572438}"/>
-    <hyperlink ref="E7" r:id="rId19" xr:uid="{C7CC816A-B929-4340-919F-96B09653F3C9}"/>
-    <hyperlink ref="E8" r:id="rId20" xr:uid="{6E174FF3-A080-4E35-BD62-0DC75D853D3B}"/>
-    <hyperlink ref="E9" r:id="rId21" xr:uid="{7AD6B676-6702-42A7-B88F-27BF01A2E318}"/>
-    <hyperlink ref="E10" r:id="rId22" xr:uid="{2BCFB4FA-867B-4E95-BAB6-78212B568B64}"/>
-    <hyperlink ref="E11" r:id="rId23" xr:uid="{787DDD0E-A163-4185-93A5-A352D2A9AF3E}"/>
-    <hyperlink ref="E12" r:id="rId24" display="https://meet.google.com/pno-skvn-kfx?authuser=0" xr:uid="{9D061FFB-1250-4A16-85BF-087A64193EAF}"/>
-    <hyperlink ref="E13" r:id="rId25" xr:uid="{40B111C2-CB18-4CC2-985A-627B82005B53}"/>
-    <hyperlink ref="E14" r:id="rId26" xr:uid="{9BCAD797-60C4-4F82-9608-2B60597F19F5}"/>
-    <hyperlink ref="G2" r:id="rId27" xr:uid="{522F8669-290B-4EA2-8FF0-ACD48430F90F}"/>
-    <hyperlink ref="G3" r:id="rId28" xr:uid="{F528AB46-31B5-42E4-9D1D-FC235DF64582}"/>
-    <hyperlink ref="G4" r:id="rId29" xr:uid="{F7C2C772-46C8-48E2-91E3-1DF474721D64}"/>
-    <hyperlink ref="G5" r:id="rId30" display="https://meet.google.com/vvx-mexr-nct?authuser=0" xr:uid="{9A26270F-3374-466D-9761-FE8C7DFFF0A2}"/>
-    <hyperlink ref="G6" r:id="rId31" xr:uid="{A75517BD-26E9-48C5-8CA8-39EE41215B77}"/>
-    <hyperlink ref="G7" r:id="rId32" xr:uid="{7880E466-0431-49C0-B811-CF7E27F49117}"/>
-    <hyperlink ref="G8" r:id="rId33" xr:uid="{B273A877-39C3-44A6-B869-D269AAE52755}"/>
-    <hyperlink ref="G9" r:id="rId34" xr:uid="{1D00F5F9-44F2-4CC0-B9F3-5C79255FDA10}"/>
-    <hyperlink ref="G10" r:id="rId35" xr:uid="{FBE61FB0-E933-4C65-918B-B3015B8944DB}"/>
-    <hyperlink ref="G11" r:id="rId36" xr:uid="{4ACB882B-45EF-433D-9AF2-F3A6567727D0}"/>
-    <hyperlink ref="H2" r:id="rId37" xr:uid="{2B9B9B93-9C4B-4D00-8BC9-197BCD0F86DA}"/>
-    <hyperlink ref="H3" r:id="rId38" xr:uid="{2BC2C6F8-45E6-436E-8B6B-1A28DEC406B4}"/>
-    <hyperlink ref="H4" r:id="rId39" xr:uid="{0E8AF0AB-6149-42E6-B4D9-DA3AF21BBCFC}"/>
-    <hyperlink ref="H5" r:id="rId40" xr:uid="{55CB4320-02D5-4D73-AAE0-861F63216155}"/>
-    <hyperlink ref="H6" r:id="rId41" xr:uid="{AE387C95-663D-483B-903C-3CDC194CA2A3}"/>
-    <hyperlink ref="H7" r:id="rId42" xr:uid="{05403FB4-AF58-4134-8DC8-FCE960068623}"/>
-    <hyperlink ref="H8" r:id="rId43" xr:uid="{31DA6E64-8984-49CF-BC48-60F1D51A5C0F}"/>
-    <hyperlink ref="H9" r:id="rId44" xr:uid="{424F9AC3-1A7C-4117-BDB5-3E270A2CE8A2}"/>
-    <hyperlink ref="H10" r:id="rId45" xr:uid="{E005C6D7-F867-43E1-8AE1-332C52D5702A}"/>
-    <hyperlink ref="H11" r:id="rId46" xr:uid="{91461AE5-01A5-4344-9A8F-4EF947BBAFC9}"/>
-    <hyperlink ref="H12" r:id="rId47" xr:uid="{DCB0BA34-3109-4C6A-AA1D-659D47AA2B5E}"/>
-    <hyperlink ref="I6" r:id="rId48" xr:uid="{0BA0097C-8E53-4595-8749-442A14985A8C}"/>
-    <hyperlink ref="J2" r:id="rId49" xr:uid="{BA62826C-1024-4D02-BD56-E310E2E90C28}"/>
-    <hyperlink ref="J3" r:id="rId50" xr:uid="{4556E20C-A106-47CA-9EC1-84D871FCE082}"/>
-    <hyperlink ref="J4" r:id="rId51" xr:uid="{564E3078-DD3E-4B0D-8329-6164252557D2}"/>
-    <hyperlink ref="J5" r:id="rId52" xr:uid="{381B1EB8-FA61-4EC7-9BDD-3B7D697B3872}"/>
-    <hyperlink ref="J6" r:id="rId53" xr:uid="{E50EFDBB-69A6-4429-BDD3-EF7D21089C1A}"/>
-    <hyperlink ref="J7" r:id="rId54" xr:uid="{A6B456C5-BE3B-4B06-9186-5CE017271A58}"/>
-    <hyperlink ref="J8" r:id="rId55" xr:uid="{F76E99CC-12E5-4811-A40B-F4119B136605}"/>
-    <hyperlink ref="J9" r:id="rId56" xr:uid="{45661333-722A-4883-841E-50E2D8DFB343}"/>
-    <hyperlink ref="J10" r:id="rId57" xr:uid="{862832C9-A4EA-48F7-A754-59E7B33CB8B8}"/>
-    <hyperlink ref="J11" r:id="rId58" xr:uid="{759F57F2-1102-4FCD-9F0D-28E8B963DD2D}"/>
-    <hyperlink ref="K2" r:id="rId59" xr:uid="{1D017DD2-72D6-466E-830C-783F4DE91E79}"/>
-    <hyperlink ref="K3" r:id="rId60" display="https://meet.google.com/vji-pnhx-zai" xr:uid="{656E7705-EF95-4C40-ABA7-CBEFA1350129}"/>
-    <hyperlink ref="K4" r:id="rId61" xr:uid="{A57A867E-33BD-44AC-9E3B-CECE4778AE44}"/>
-    <hyperlink ref="K5" r:id="rId62" xr:uid="{DA1BE6F7-4D62-4F50-9331-C85E6745139D}"/>
-    <hyperlink ref="K6" r:id="rId63" xr:uid="{304DC049-D4BD-400E-8634-AEEAA565203A}"/>
-    <hyperlink ref="K7" r:id="rId64" xr:uid="{BB773F68-5F3D-4A7A-B3F0-020DA7F86820}"/>
-    <hyperlink ref="K8" r:id="rId65" xr:uid="{D417D5D5-03AA-455A-97C1-361E4777AB82}"/>
-    <hyperlink ref="K9" r:id="rId66" xr:uid="{125B704D-0905-45C7-AE3F-DA58A221526F}"/>
-    <hyperlink ref="K10" r:id="rId67" xr:uid="{FE15372B-54B0-4669-979A-4FBDA3CAF214}"/>
-    <hyperlink ref="K11" r:id="rId68" xr:uid="{8E487750-8E0C-405C-B3B6-59AA519CB76A}"/>
-    <hyperlink ref="L2" r:id="rId69" xr:uid="{95E9C5E4-3AD0-4FC6-9556-ECD20B53D3C2}"/>
-    <hyperlink ref="L3" r:id="rId70" xr:uid="{52E5B4FF-8A35-4B5F-9016-96F0CF0B13DF}"/>
-    <hyperlink ref="L4" r:id="rId71" xr:uid="{58994C20-34CC-4EF1-9B62-63A77ADA470E}"/>
-    <hyperlink ref="L5" r:id="rId72" xr:uid="{2F3976FE-C528-4A1F-BFE7-6E10DB9CAD08}"/>
-    <hyperlink ref="L6" r:id="rId73" xr:uid="{E389DA69-8AEC-44E2-8B06-7472DD5EC788}"/>
-    <hyperlink ref="L7" r:id="rId74" xr:uid="{9EAF11D8-0FDF-4DB6-A301-272D84D90F21}"/>
-    <hyperlink ref="L8" r:id="rId75" xr:uid="{C59C22CF-4358-47ED-BDA0-C6680C00FCAD}"/>
-    <hyperlink ref="L9" r:id="rId76" xr:uid="{CD8CD25E-8A58-4116-90FD-E2BB8146527B}"/>
-    <hyperlink ref="L10" r:id="rId77" xr:uid="{9ADFB76F-B1B0-4211-84AC-F8E663979E79}"/>
-    <hyperlink ref="L11" r:id="rId78" xr:uid="{D10DC1BE-8548-4A83-B860-5BAADB373B1F}"/>
-    <hyperlink ref="M11" r:id="rId79" xr:uid="{5C9A7DAC-8D12-4954-9776-21ED08B51D4E}"/>
-    <hyperlink ref="M10" r:id="rId80" xr:uid="{7AC30B9E-5514-4C08-A5BA-42CF61462142}"/>
-    <hyperlink ref="M9" r:id="rId81" xr:uid="{FAE1BE10-AF88-4128-B221-1BA16281EB2A}"/>
-    <hyperlink ref="M8" r:id="rId82" xr:uid="{2D332409-3C23-451E-A929-F8D7F5A14751}"/>
-    <hyperlink ref="M7" r:id="rId83" xr:uid="{1F21835C-D352-47AE-86A6-AFABCAC3AB66}"/>
-    <hyperlink ref="M6" r:id="rId84" xr:uid="{D1B422D2-6C88-4589-B43E-20B6E86F0B8C}"/>
-    <hyperlink ref="M5" r:id="rId85" xr:uid="{83F3F7BE-BBA4-49E4-8C94-9D829DE2FDD8}"/>
-    <hyperlink ref="M4" r:id="rId86" xr:uid="{58D9D789-EB32-4C7D-8C84-C61959ADAC76}"/>
-    <hyperlink ref="M3" r:id="rId87" xr:uid="{97F68AD1-ABB8-442B-97C9-6F37A3F8B71A}"/>
-    <hyperlink ref="M2" r:id="rId88" xr:uid="{0C2AC0E1-7A23-4B35-8FED-7534B4DB8E83}"/>
-    <hyperlink ref="N2" r:id="rId89" xr:uid="{3E33E3C1-C910-4002-84E8-6509AE394888}"/>
-    <hyperlink ref="N3" r:id="rId90" xr:uid="{FDD0610F-6B18-4D92-8725-26F0ABBD1290}"/>
-    <hyperlink ref="N4" r:id="rId91" xr:uid="{740E9159-EB1B-40E9-AE57-5B657052237C}"/>
-    <hyperlink ref="N5" r:id="rId92" xr:uid="{00B78C09-396B-4FA1-9E2D-630FDAFA1482}"/>
-    <hyperlink ref="N6" r:id="rId93" xr:uid="{B634D49B-DE64-469E-9A30-2C2412781A1A}"/>
-    <hyperlink ref="N7" r:id="rId94" xr:uid="{E6A2FAE6-6FC9-45A5-A9E0-DF1BDB97B7E1}"/>
-    <hyperlink ref="N8" r:id="rId95" xr:uid="{091778B4-1799-497A-9FA3-0386F9E01CE6}"/>
-    <hyperlink ref="N9" r:id="rId96" xr:uid="{00891683-4BE5-41E8-929F-9A4533D45015}"/>
-    <hyperlink ref="N10" r:id="rId97" xr:uid="{F5DDDACC-0996-4B19-B3CE-0CA5616751D6}"/>
-    <hyperlink ref="N11" r:id="rId98" xr:uid="{118CF2AE-5D81-48DB-8C1D-20457600264C}"/>
-    <hyperlink ref="O2" r:id="rId99" xr:uid="{711D1982-BF26-4F3E-BCAC-E9DD730E9993}"/>
-    <hyperlink ref="O3" r:id="rId100" xr:uid="{B4526196-D6B5-4A65-B713-F18C12ED7E68}"/>
-    <hyperlink ref="O4" r:id="rId101" xr:uid="{92967EA2-20CC-42D3-8157-73D98E0A42C9}"/>
-    <hyperlink ref="O5" r:id="rId102" xr:uid="{2EB4DBEF-CCDC-44F4-80FE-0A16310139F2}"/>
-    <hyperlink ref="O6" r:id="rId103" xr:uid="{BE5C80E3-D599-40F8-A644-1D68A4F8A880}"/>
-    <hyperlink ref="O7" r:id="rId104" xr:uid="{2BB4E308-0729-405C-8710-51AA2EA278AD}"/>
-    <hyperlink ref="O8" r:id="rId105" xr:uid="{CE97054E-2C3E-422D-ACD9-7D4BEAB6B028}"/>
-    <hyperlink ref="O9" r:id="rId106" xr:uid="{8A96112A-574D-4783-B94A-AD81BF9D126E}"/>
-    <hyperlink ref="O10" r:id="rId107" xr:uid="{9FE11243-E2AF-402E-B8DB-6C512DE241A6}"/>
-    <hyperlink ref="P2" r:id="rId108" xr:uid="{A376472A-88EE-4805-9EFA-C24BE00C3E51}"/>
-    <hyperlink ref="P3" r:id="rId109" xr:uid="{1489F66D-420B-4D60-A121-5E45CC0A7232}"/>
-    <hyperlink ref="P4" r:id="rId110" xr:uid="{B522EE23-E19A-4839-80CD-9EC478AB0F9E}"/>
-    <hyperlink ref="P5" r:id="rId111" xr:uid="{4B517C87-312D-48D8-8AA2-5F1A3A179E7B}"/>
-    <hyperlink ref="P6" r:id="rId112" xr:uid="{A9DE247A-F19F-4AC0-9523-F10D479C8783}"/>
-    <hyperlink ref="P7" r:id="rId113" xr:uid="{10C3CBF4-0684-43BD-BD49-F388DC9FCC15}"/>
-    <hyperlink ref="P8" r:id="rId114" xr:uid="{B5194833-D854-4759-A10A-758AADE3793F}"/>
-    <hyperlink ref="P9" r:id="rId115" xr:uid="{E73886EB-0FE1-4E46-B1A0-37C75825C499}"/>
-    <hyperlink ref="P10" r:id="rId116" xr:uid="{F444F8E6-4ECD-4D97-9E3B-1B596A604533}"/>
-    <hyperlink ref="C2" r:id="rId117" xr:uid="{4F467EB5-5DB4-45E4-BE53-D4167806B8B0}"/>
-    <hyperlink ref="C3" r:id="rId118" xr:uid="{A44FE1B8-1C7B-43EA-8650-22E72F697463}"/>
-    <hyperlink ref="C4" r:id="rId119" xr:uid="{808F2A50-C75C-4A46-92EF-BCF7986BEC66}"/>
-    <hyperlink ref="C5" r:id="rId120" xr:uid="{B46FCC85-A0CB-422F-ABD4-1A81356E751E}"/>
-    <hyperlink ref="C6" r:id="rId121" xr:uid="{8E86019D-E90A-41AB-A65E-25C3DD046C90}"/>
-    <hyperlink ref="C7" r:id="rId122" xr:uid="{854900F5-92F1-483D-AEB1-82836C6F5B19}"/>
-    <hyperlink ref="C8" r:id="rId123" xr:uid="{0D1C8066-55A7-481C-92DE-12670AA72303}"/>
-    <hyperlink ref="C9" r:id="rId124" xr:uid="{CCA31005-9F67-418E-A2FC-ACAC65AFEA8F}"/>
-    <hyperlink ref="C10" r:id="rId125" xr:uid="{BA73033B-BD23-4168-AEAD-E8B565312C6D}"/>
-    <hyperlink ref="C11" r:id="rId126" xr:uid="{3DDE3509-4368-4B2B-B0FC-5626259B07EB}"/>
-    <hyperlink ref="C12" r:id="rId127" xr:uid="{54E9CB5B-E4B7-4585-81A5-A7C2B29CD041}"/>
-    <hyperlink ref="C13" r:id="rId128" xr:uid="{982DF4B8-02C7-48D1-B69D-6A4E87CC33F2}"/>
-    <hyperlink ref="C14" r:id="rId129" xr:uid="{7FDC41EE-E2D1-467E-9B6D-F4D201A72BBE}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{522F8669-290B-4EA2-8FF0-ACD48430F90F}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{F528AB46-31B5-42E4-9D1D-FC235DF64582}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{F7C2C772-46C8-48E2-91E3-1DF474721D64}"/>
+    <hyperlink ref="G5" r:id="rId4" display="https://meet.google.com/vvx-mexr-nct?authuser=0" xr:uid="{9A26270F-3374-466D-9761-FE8C7DFFF0A2}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{A75517BD-26E9-48C5-8CA8-39EE41215B77}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{7880E466-0431-49C0-B811-CF7E27F49117}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{B273A877-39C3-44A6-B869-D269AAE52755}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{1D00F5F9-44F2-4CC0-B9F3-5C79255FDA10}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{FBE61FB0-E933-4C65-918B-B3015B8944DB}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{4ACB882B-45EF-433D-9AF2-F3A6567727D0}"/>
+    <hyperlink ref="H2" r:id="rId11" xr:uid="{2B9B9B93-9C4B-4D00-8BC9-197BCD0F86DA}"/>
+    <hyperlink ref="H3" r:id="rId12" xr:uid="{2BC2C6F8-45E6-436E-8B6B-1A28DEC406B4}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{0E8AF0AB-6149-42E6-B4D9-DA3AF21BBCFC}"/>
+    <hyperlink ref="H5" r:id="rId14" xr:uid="{55CB4320-02D5-4D73-AAE0-861F63216155}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{AE387C95-663D-483B-903C-3CDC194CA2A3}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{05403FB4-AF58-4134-8DC8-FCE960068623}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{31DA6E64-8984-49CF-BC48-60F1D51A5C0F}"/>
+    <hyperlink ref="H9" r:id="rId18" xr:uid="{424F9AC3-1A7C-4117-BDB5-3E270A2CE8A2}"/>
+    <hyperlink ref="H10" r:id="rId19" xr:uid="{E005C6D7-F867-43E1-8AE1-332C52D5702A}"/>
+    <hyperlink ref="H11" r:id="rId20" xr:uid="{91461AE5-01A5-4344-9A8F-4EF947BBAFC9}"/>
+    <hyperlink ref="H12" r:id="rId21" xr:uid="{DCB0BA34-3109-4C6A-AA1D-659D47AA2B5E}"/>
+    <hyperlink ref="I6" r:id="rId22" xr:uid="{0BA0097C-8E53-4595-8749-442A14985A8C}"/>
+    <hyperlink ref="J2" r:id="rId23" xr:uid="{BA62826C-1024-4D02-BD56-E310E2E90C28}"/>
+    <hyperlink ref="J3" r:id="rId24" xr:uid="{4556E20C-A106-47CA-9EC1-84D871FCE082}"/>
+    <hyperlink ref="J4" r:id="rId25" xr:uid="{564E3078-DD3E-4B0D-8329-6164252557D2}"/>
+    <hyperlink ref="J5" r:id="rId26" xr:uid="{381B1EB8-FA61-4EC7-9BDD-3B7D697B3872}"/>
+    <hyperlink ref="J6" r:id="rId27" xr:uid="{E50EFDBB-69A6-4429-BDD3-EF7D21089C1A}"/>
+    <hyperlink ref="J7" r:id="rId28" xr:uid="{A6B456C5-BE3B-4B06-9186-5CE017271A58}"/>
+    <hyperlink ref="J8" r:id="rId29" xr:uid="{F76E99CC-12E5-4811-A40B-F4119B136605}"/>
+    <hyperlink ref="J9" r:id="rId30" xr:uid="{45661333-722A-4883-841E-50E2D8DFB343}"/>
+    <hyperlink ref="J10" r:id="rId31" xr:uid="{862832C9-A4EA-48F7-A754-59E7B33CB8B8}"/>
+    <hyperlink ref="J11" r:id="rId32" xr:uid="{759F57F2-1102-4FCD-9F0D-28E8B963DD2D}"/>
+    <hyperlink ref="K2" r:id="rId33" xr:uid="{1D017DD2-72D6-466E-830C-783F4DE91E79}"/>
+    <hyperlink ref="K3" r:id="rId34" display="https://meet.google.com/vji-pnhx-zai" xr:uid="{656E7705-EF95-4C40-ABA7-CBEFA1350129}"/>
+    <hyperlink ref="K4" r:id="rId35" xr:uid="{A57A867E-33BD-44AC-9E3B-CECE4778AE44}"/>
+    <hyperlink ref="K5" r:id="rId36" xr:uid="{DA1BE6F7-4D62-4F50-9331-C85E6745139D}"/>
+    <hyperlink ref="K6" r:id="rId37" xr:uid="{304DC049-D4BD-400E-8634-AEEAA565203A}"/>
+    <hyperlink ref="K7" r:id="rId38" xr:uid="{BB773F68-5F3D-4A7A-B3F0-020DA7F86820}"/>
+    <hyperlink ref="K8" r:id="rId39" xr:uid="{D417D5D5-03AA-455A-97C1-361E4777AB82}"/>
+    <hyperlink ref="K9" r:id="rId40" xr:uid="{125B704D-0905-45C7-AE3F-DA58A221526F}"/>
+    <hyperlink ref="K10" r:id="rId41" xr:uid="{FE15372B-54B0-4669-979A-4FBDA3CAF214}"/>
+    <hyperlink ref="K11" r:id="rId42" xr:uid="{8E487750-8E0C-405C-B3B6-59AA519CB76A}"/>
+    <hyperlink ref="L2" r:id="rId43" xr:uid="{95E9C5E4-3AD0-4FC6-9556-ECD20B53D3C2}"/>
+    <hyperlink ref="L3" r:id="rId44" xr:uid="{52E5B4FF-8A35-4B5F-9016-96F0CF0B13DF}"/>
+    <hyperlink ref="L4" r:id="rId45" xr:uid="{58994C20-34CC-4EF1-9B62-63A77ADA470E}"/>
+    <hyperlink ref="L5" r:id="rId46" xr:uid="{2F3976FE-C528-4A1F-BFE7-6E10DB9CAD08}"/>
+    <hyperlink ref="L6" r:id="rId47" xr:uid="{E389DA69-8AEC-44E2-8B06-7472DD5EC788}"/>
+    <hyperlink ref="L7" r:id="rId48" xr:uid="{9EAF11D8-0FDF-4DB6-A301-272D84D90F21}"/>
+    <hyperlink ref="L8" r:id="rId49" xr:uid="{C59C22CF-4358-47ED-BDA0-C6680C00FCAD}"/>
+    <hyperlink ref="L9" r:id="rId50" xr:uid="{CD8CD25E-8A58-4116-90FD-E2BB8146527B}"/>
+    <hyperlink ref="L10" r:id="rId51" xr:uid="{9ADFB76F-B1B0-4211-84AC-F8E663979E79}"/>
+    <hyperlink ref="L11" r:id="rId52" xr:uid="{D10DC1BE-8548-4A83-B860-5BAADB373B1F}"/>
+    <hyperlink ref="M11" r:id="rId53" xr:uid="{5C9A7DAC-8D12-4954-9776-21ED08B51D4E}"/>
+    <hyperlink ref="M10" r:id="rId54" xr:uid="{7AC30B9E-5514-4C08-A5BA-42CF61462142}"/>
+    <hyperlink ref="M9" r:id="rId55" xr:uid="{FAE1BE10-AF88-4128-B221-1BA16281EB2A}"/>
+    <hyperlink ref="M8" r:id="rId56" xr:uid="{2D332409-3C23-451E-A929-F8D7F5A14751}"/>
+    <hyperlink ref="M7" r:id="rId57" xr:uid="{1F21835C-D352-47AE-86A6-AFABCAC3AB66}"/>
+    <hyperlink ref="M6" r:id="rId58" xr:uid="{D1B422D2-6C88-4589-B43E-20B6E86F0B8C}"/>
+    <hyperlink ref="M5" r:id="rId59" xr:uid="{83F3F7BE-BBA4-49E4-8C94-9D829DE2FDD8}"/>
+    <hyperlink ref="M4" r:id="rId60" xr:uid="{58D9D789-EB32-4C7D-8C84-C61959ADAC76}"/>
+    <hyperlink ref="M3" r:id="rId61" xr:uid="{97F68AD1-ABB8-442B-97C9-6F37A3F8B71A}"/>
+    <hyperlink ref="M2" r:id="rId62" xr:uid="{0C2AC0E1-7A23-4B35-8FED-7534B4DB8E83}"/>
+    <hyperlink ref="N2" r:id="rId63" xr:uid="{3E33E3C1-C910-4002-84E8-6509AE394888}"/>
+    <hyperlink ref="N3" r:id="rId64" xr:uid="{FDD0610F-6B18-4D92-8725-26F0ABBD1290}"/>
+    <hyperlink ref="N4" r:id="rId65" xr:uid="{740E9159-EB1B-40E9-AE57-5B657052237C}"/>
+    <hyperlink ref="N5" r:id="rId66" xr:uid="{00B78C09-396B-4FA1-9E2D-630FDAFA1482}"/>
+    <hyperlink ref="N6" r:id="rId67" xr:uid="{B634D49B-DE64-469E-9A30-2C2412781A1A}"/>
+    <hyperlink ref="N7" r:id="rId68" xr:uid="{E6A2FAE6-6FC9-45A5-A9E0-DF1BDB97B7E1}"/>
+    <hyperlink ref="N8" r:id="rId69" xr:uid="{091778B4-1799-497A-9FA3-0386F9E01CE6}"/>
+    <hyperlink ref="N9" r:id="rId70" xr:uid="{00891683-4BE5-41E8-929F-9A4533D45015}"/>
+    <hyperlink ref="N10" r:id="rId71" xr:uid="{F5DDDACC-0996-4B19-B3CE-0CA5616751D6}"/>
+    <hyperlink ref="N11" r:id="rId72" xr:uid="{118CF2AE-5D81-48DB-8C1D-20457600264C}"/>
+    <hyperlink ref="O2" r:id="rId73" xr:uid="{711D1982-BF26-4F3E-BCAC-E9DD730E9993}"/>
+    <hyperlink ref="O3" r:id="rId74" xr:uid="{B4526196-D6B5-4A65-B713-F18C12ED7E68}"/>
+    <hyperlink ref="O4" r:id="rId75" xr:uid="{92967EA2-20CC-42D3-8157-73D98E0A42C9}"/>
+    <hyperlink ref="O5" r:id="rId76" xr:uid="{2EB4DBEF-CCDC-44F4-80FE-0A16310139F2}"/>
+    <hyperlink ref="O6" r:id="rId77" xr:uid="{BE5C80E3-D599-40F8-A644-1D68A4F8A880}"/>
+    <hyperlink ref="O7" r:id="rId78" xr:uid="{2BB4E308-0729-405C-8710-51AA2EA278AD}"/>
+    <hyperlink ref="O8" r:id="rId79" xr:uid="{CE97054E-2C3E-422D-ACD9-7D4BEAB6B028}"/>
+    <hyperlink ref="O9" r:id="rId80" xr:uid="{8A96112A-574D-4783-B94A-AD81BF9D126E}"/>
+    <hyperlink ref="O10" r:id="rId81" xr:uid="{9FE11243-E2AF-402E-B8DB-6C512DE241A6}"/>
+    <hyperlink ref="P2" r:id="rId82" xr:uid="{A376472A-88EE-4805-9EFA-C24BE00C3E51}"/>
+    <hyperlink ref="P3" r:id="rId83" xr:uid="{1489F66D-420B-4D60-A121-5E45CC0A7232}"/>
+    <hyperlink ref="P4" r:id="rId84" xr:uid="{B522EE23-E19A-4839-80CD-9EC478AB0F9E}"/>
+    <hyperlink ref="P5" r:id="rId85" xr:uid="{4B517C87-312D-48D8-8AA2-5F1A3A179E7B}"/>
+    <hyperlink ref="P6" r:id="rId86" xr:uid="{A9DE247A-F19F-4AC0-9523-F10D479C8783}"/>
+    <hyperlink ref="P7" r:id="rId87" xr:uid="{10C3CBF4-0684-43BD-BD49-F388DC9FCC15}"/>
+    <hyperlink ref="P8" r:id="rId88" xr:uid="{B5194833-D854-4759-A10A-758AADE3793F}"/>
+    <hyperlink ref="P9" r:id="rId89" xr:uid="{E73886EB-0FE1-4E46-B1A0-37C75825C499}"/>
+    <hyperlink ref="P10" r:id="rId90" xr:uid="{F444F8E6-4ECD-4D97-9E3B-1B596A604533}"/>
+    <hyperlink ref="C2" r:id="rId91" xr:uid="{4F467EB5-5DB4-45E4-BE53-D4167806B8B0}"/>
+    <hyperlink ref="C3" r:id="rId92" xr:uid="{A44FE1B8-1C7B-43EA-8650-22E72F697463}"/>
+    <hyperlink ref="C4" r:id="rId93" xr:uid="{808F2A50-C75C-4A46-92EF-BCF7986BEC66}"/>
+    <hyperlink ref="C5" r:id="rId94" xr:uid="{B46FCC85-A0CB-422F-ABD4-1A81356E751E}"/>
+    <hyperlink ref="C6" r:id="rId95" xr:uid="{8E86019D-E90A-41AB-A65E-25C3DD046C90}"/>
+    <hyperlink ref="C7" r:id="rId96" xr:uid="{854900F5-92F1-483D-AEB1-82836C6F5B19}"/>
+    <hyperlink ref="C8" r:id="rId97" xr:uid="{0D1C8066-55A7-481C-92DE-12670AA72303}"/>
+    <hyperlink ref="C9" r:id="rId98" xr:uid="{CCA31005-9F67-418E-A2FC-ACAC65AFEA8F}"/>
+    <hyperlink ref="C10" r:id="rId99" xr:uid="{BA73033B-BD23-4168-AEAD-E8B565312C6D}"/>
+    <hyperlink ref="C11" r:id="rId100" xr:uid="{3DDE3509-4368-4B2B-B0FC-5626259B07EB}"/>
+    <hyperlink ref="C12" r:id="rId101" xr:uid="{54E9CB5B-E4B7-4585-81A5-A7C2B29CD041}"/>
+    <hyperlink ref="C13" r:id="rId102" xr:uid="{982DF4B8-02C7-48D1-B69D-6A4E87CC33F2}"/>
+    <hyperlink ref="C14" r:id="rId103" xr:uid="{7FDC41EE-E2D1-467E-9B6D-F4D201A72BBE}"/>
+    <hyperlink ref="D2" r:id="rId104" xr:uid="{5398029C-3068-4B04-88F1-E19B2B08ED65}"/>
+    <hyperlink ref="D3" r:id="rId105" xr:uid="{C489EE70-BA2E-424C-8E91-7B1ED6B8EC21}"/>
+    <hyperlink ref="D4" r:id="rId106" xr:uid="{87042AA4-F2E8-4BA2-9D1E-CE95FE78AA72}"/>
+    <hyperlink ref="D5" r:id="rId107" xr:uid="{F082EAC7-46E3-4A54-A5AC-E064806C0243}"/>
+    <hyperlink ref="D6" r:id="rId108" xr:uid="{271464FE-12F5-4ABB-9B01-E0106AFAC15D}"/>
+    <hyperlink ref="D7" r:id="rId109" xr:uid="{B012C6F3-3E3A-4B60-BEDD-C0AD1C1E9D50}"/>
+    <hyperlink ref="D8" r:id="rId110" xr:uid="{5E2B0E99-2AA4-4449-88CE-5DC1004D394F}"/>
+    <hyperlink ref="D9" r:id="rId111" xr:uid="{CE16560E-4486-4A8C-9492-92A1B12910EF}"/>
+    <hyperlink ref="D10" r:id="rId112" xr:uid="{3F08CBD6-9231-4E4B-8D6A-93933042E259}"/>
+    <hyperlink ref="D11" r:id="rId113" xr:uid="{0171E2E1-26E9-4538-BF0D-E63F4F84E1CB}"/>
+    <hyperlink ref="D12" r:id="rId114" xr:uid="{8746C8C0-5DB2-4EC2-B55A-F109687D060B}"/>
+    <hyperlink ref="D13" r:id="rId115" xr:uid="{DF0504C4-E41D-4BAC-810F-5B7267F526DE}"/>
+    <hyperlink ref="D14" r:id="rId116" xr:uid="{3DE7EBAC-3A37-4475-99B0-C02ACEC57C15}"/>
+    <hyperlink ref="E2" r:id="rId117" xr:uid="{F45D0A96-8CAD-4A26-A2C1-EAD4AD541875}"/>
+    <hyperlink ref="E3" r:id="rId118" xr:uid="{6509061A-3902-4667-93B6-14A8D37AEFE1}"/>
+    <hyperlink ref="E4" r:id="rId119" xr:uid="{30D1664A-9262-4FEC-B7FF-E144A9E001A4}"/>
+    <hyperlink ref="E5" r:id="rId120" xr:uid="{0078ABAF-010E-417E-B93B-050DD1E89F5A}"/>
+    <hyperlink ref="E6" r:id="rId121" xr:uid="{F782B882-AE51-430F-AA78-94FE1DAA20B4}"/>
+    <hyperlink ref="E7" r:id="rId122" xr:uid="{4CA6DE6F-D3CD-45D2-AFEA-0341602EE0BD}"/>
+    <hyperlink ref="E8" r:id="rId123" xr:uid="{727E0ADD-1180-4310-B8E8-AFFC4F8E45AA}"/>
+    <hyperlink ref="E9" r:id="rId124" xr:uid="{7B8A1BAF-2633-4214-A4DB-B78806298B0D}"/>
+    <hyperlink ref="E10" r:id="rId125" xr:uid="{75D8A7C1-3C79-4606-9E97-454968394DA4}"/>
+    <hyperlink ref="E11" r:id="rId126" xr:uid="{91CB088B-59CB-455D-A3A0-23EF2E7A724A}"/>
+    <hyperlink ref="E12" r:id="rId127" display="https://meet.google.com/pno-skvn-kfx?authuser=0" xr:uid="{50271B3B-1E48-44EB-BC30-AED4CD3334CF}"/>
+    <hyperlink ref="E13" r:id="rId128" xr:uid="{3EC58383-B061-437A-B42E-4E6D7F5FD4CF}"/>
+    <hyperlink ref="E14" r:id="rId129" xr:uid="{A2C9A24D-98BC-4FA8-90AF-38EDECBD221C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId130"/>

--- a/enlaces.xlsx
+++ b/enlaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\OpenMeet-s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Apps\automatizacion enlaces\OpenMeet-s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE3092-0BAE-411D-8904-3565AB909CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF860BD-1FD9-49AF-9467-1A1E81470CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="2970" windowWidth="13395" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>SP_01</t>
   </si>
@@ -529,13 +529,61 @@
   </si>
   <si>
     <t>https://meet.google.com/bzy-vovr-gfk</t>
+  </si>
+  <si>
+    <t>ENLACES</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PPjI3taZHNBcuCHIokWVM3hzU5o4Z5UaU1OgjQ1wTuA&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13zGvmL5T4yc80YGWiGhEka_W2wYLOenocqwAaJtexQY&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WBp_t2Rg6h7f3yRlUYRrlyuykOKYSpzLUPR_I1K_TVM&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1A-09eLqJ5AsPm1kYZn6RWedrtZCLRGnWu8jizylfHZo&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mZ3BIHCZwgwc0Vo1QFeneYfeX1B5G5-c3cvYg-r2IDs&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ro2pRNNePRoqNyeWikWY26iYJ8w6a-tQrzXpDs_wZTI&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1F0yY0ttfS3y4bJ-RK4ISh1HcQNYbVbLMZT3DjtQQhQo&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1S9yoOWO6F8ooA3DvPZjBtnHceNQIHX33JiA2jOyqLbQ&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HTNZ9Z8oTq0tUtHv9xrmJZxaEkl4VrI58VfyZ7jURGw&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1p-bWbgn9GBMSMZDhwuzzqIaAry4Vcuc_7pSjP23C3LU&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gg7QwQsnLq_BcMagncyPrxw1eEVJNt0PPvv8dkxgcsc&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1w6VGJs6mt_YI1C3LcOCOBynKIo9UgqIb3SVQwjOF7SU&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19d7YD0KA92W-KevMjrLJNgXKR79MU5uovxuV0UfMkso&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BvwSzCVfzjm7N3SfHpObpRs2iZHdVlwpDL5QrXhki9M&amp;usp=drive_copy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=10H7NahGxgev88kGjRZm6nK2vWa0AvfDNG9cqOyPM6RQ&amp;usp=drive_copy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +623,13 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -679,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -720,6 +775,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1001,15 +1057,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P15"/>
+  <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1055,8 +1111,11 @@
       <c r="P1" t="s">
         <v>20</v>
       </c>
+      <c r="Q1" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="2" spans="2:16" ht="91.5" thickTop="1" thickBot="1">
+    <row r="2" spans="2:17" ht="91.5" thickTop="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1102,8 +1161,11 @@
       <c r="P2" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="Q2" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="3" spans="2:16" ht="90.75" thickBot="1">
+    <row r="3" spans="2:17" ht="90.75" thickBot="1">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1149,8 +1211,11 @@
       <c r="P3" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="Q3" s="14" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="4" spans="2:16" ht="90.75" thickBot="1">
+    <row r="4" spans="2:17" ht="90.75" thickBot="1">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1196,8 +1261,11 @@
       <c r="P4" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="Q4" s="14" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="5" spans="2:16" ht="90.75" thickBot="1">
+    <row r="5" spans="2:17" ht="90.75" thickBot="1">
       <c r="C5" s="4" t="s">
         <v>158</v>
       </c>
@@ -1240,8 +1308,11 @@
       <c r="P5" s="4" t="s">
         <v>152</v>
       </c>
+      <c r="Q5" s="14" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="6" spans="2:16" ht="90.75" thickBot="1">
+    <row r="6" spans="2:17" ht="90.75" thickBot="1">
       <c r="C6" s="4" t="s">
         <v>159</v>
       </c>
@@ -1284,8 +1355,11 @@
       <c r="P6" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="Q6" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="7" spans="2:16" ht="90.75" thickBot="1">
+    <row r="7" spans="2:17" ht="90.75" thickBot="1">
       <c r="C7" s="4" t="s">
         <v>160</v>
       </c>
@@ -1328,8 +1402,11 @@
       <c r="P7" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="Q7" s="14" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="8" spans="2:16" ht="90.75" thickBot="1">
+    <row r="8" spans="2:17" ht="90.75" thickBot="1">
       <c r="C8" s="4" t="s">
         <v>161</v>
       </c>
@@ -1372,8 +1449,11 @@
       <c r="P8" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="Q8" s="14" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="9" spans="2:16" ht="90.75" thickBot="1">
+    <row r="9" spans="2:17" ht="90.75" thickBot="1">
       <c r="C9" s="4" t="s">
         <v>162</v>
       </c>
@@ -1416,8 +1496,11 @@
       <c r="P9" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="Q9" s="14" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="10" spans="2:16" ht="90.75" thickBot="1">
+    <row r="10" spans="2:17" ht="90.75" thickBot="1">
       <c r="C10" s="4" t="s">
         <v>163</v>
       </c>
@@ -1460,8 +1543,11 @@
       <c r="P10" s="5" t="s">
         <v>157</v>
       </c>
+      <c r="Q10" s="14" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="11" spans="2:16" ht="90.75" thickBot="1">
+    <row r="11" spans="2:17" ht="90.75" thickBot="1">
       <c r="C11" s="4" t="s">
         <v>164</v>
       </c>
@@ -1498,8 +1584,11 @@
       <c r="N11" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="Q11" s="14" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="12" spans="2:16" ht="90.75" thickBot="1">
+    <row r="12" spans="2:17" ht="90.75" thickBot="1">
       <c r="C12" s="4" t="s">
         <v>165</v>
       </c>
@@ -1515,8 +1604,11 @@
       <c r="H12" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="Q12" s="14" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="13" spans="2:16" ht="75.75" thickBot="1">
+    <row r="13" spans="2:17" ht="75.75" thickBot="1">
       <c r="C13" s="4" t="s">
         <v>166</v>
       </c>
@@ -1529,8 +1621,11 @@
       <c r="F13" s="8" t="s">
         <v>58</v>
       </c>
+      <c r="Q13" s="14" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="14" spans="2:16" ht="75.75" thickBot="1">
+    <row r="14" spans="2:17" ht="75.75" thickBot="1">
       <c r="C14" s="5" t="s">
         <v>167</v>
       </c>
@@ -1540,8 +1635,20 @@
       <c r="E14" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="Q14" s="14" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickTop="1"/>
+    <row r="15" spans="2:17" ht="15.75" thickTop="1">
+      <c r="Q15" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="Q16" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
